--- a/EV Adoption Models/Consumption Groups/Model_USA.xlsx
+++ b/EV Adoption Models/Consumption Groups/Model_USA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP Envy\Dropbox\Gas_Subsidy_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8CCA7-2057-4BE4-B654-A97C1B4A987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA72391-939D-49C1-8BF5-9ECC2392FB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53FA512D-EF58-4871-8C8F-CEC6494C4903}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="205">
   <si>
     <t>gallons</t>
   </si>
@@ -700,9 +700,6 @@
   </si>
   <si>
     <t>superusers first (4th)</t>
-  </si>
-  <si>
-    <t>Gallons as result in 2030:</t>
   </si>
   <si>
     <t>Gasoline Vehicles (Percentages represent the level a consumption group decreasing the share of gasoline LDVs to)</t>
@@ -1262,7 +1259,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1434,9 +1431,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1449,7 +1443,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7201,27 +7197,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
-      <c r="N1" s="121" t="s">
+      <c r="N1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
     </row>
     <row r="2" spans="1:31" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="114"/>
@@ -7312,25 +7308,25 @@
       <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="122">
+      <c r="K3" s="121">
         <v>1</v>
       </c>
-      <c r="M3" s="126">
+      <c r="M3" s="125">
         <v>1</v>
       </c>
       <c r="N3" s="4">
         <v>23.46904361383498</v>
       </c>
-      <c r="O3" s="125">
+      <c r="O3" s="124">
         <v>1249.7666266239801</v>
       </c>
-      <c r="P3" s="125">
+      <c r="P3" s="124">
         <v>53.251706681700647</v>
       </c>
-      <c r="Q3" s="125">
+      <c r="Q3" s="124">
         <v>53.375513648853158</v>
       </c>
-      <c r="R3" s="127">
+      <c r="R3" s="126">
         <v>948.734079947498</v>
       </c>
       <c r="V3" s="114" t="s">
@@ -7404,26 +7400,26 @@
         <f>J3-(($J$3-$J$12)/9)</f>
         <v>1</v>
       </c>
-      <c r="K4" s="122">
+      <c r="K4" s="121">
         <f>K3-(($K$3-$K$12)/9)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="126">
+      <c r="M4" s="125">
         <v>2</v>
       </c>
       <c r="N4" s="4">
         <v>23.306814918147129</v>
       </c>
-      <c r="O4" s="125">
+      <c r="O4" s="124">
         <v>3396.987483644421</v>
       </c>
-      <c r="P4" s="125">
+      <c r="P4" s="124">
         <v>145.75082419346205</v>
       </c>
-      <c r="Q4" s="125">
+      <c r="Q4" s="124">
         <v>145.86770153677861</v>
       </c>
-      <c r="R4" s="127">
+      <c r="R4" s="126">
         <v>3212.8182862665021</v>
       </c>
       <c r="V4" s="84">
@@ -7501,26 +7497,26 @@
         <f t="shared" ref="J5:J11" si="8">J4-(($J$3-$J$12)/9)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="122">
+      <c r="K5" s="121">
         <f t="shared" ref="K5:K11" si="9">K4-(($K$3-$K$12)/9)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="126">
+      <c r="M5" s="125">
         <v>3</v>
       </c>
       <c r="N5" s="4">
         <v>23.003569523653219</v>
       </c>
-      <c r="O5" s="125">
+      <c r="O5" s="124">
         <v>5170.908917494894</v>
       </c>
-      <c r="P5" s="125">
+      <c r="P5" s="124">
         <v>224.78724061402522</v>
       </c>
-      <c r="Q5" s="125">
+      <c r="Q5" s="124">
         <v>224.8451904288699</v>
       </c>
-      <c r="R5" s="127">
+      <c r="R5" s="126">
         <v>5254.5156172400439</v>
       </c>
       <c r="V5" s="84">
@@ -7598,26 +7594,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K6" s="122">
+      <c r="K6" s="121">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M6" s="126">
+      <c r="M6" s="125">
         <v>4</v>
       </c>
       <c r="N6" s="4">
         <v>22.640257662167151</v>
       </c>
-      <c r="O6" s="125">
+      <c r="O6" s="124">
         <v>6792.3395733958232</v>
       </c>
-      <c r="P6" s="125">
+      <c r="P6" s="124">
         <v>300.01158444173171</v>
       </c>
-      <c r="Q6" s="125">
+      <c r="Q6" s="124">
         <v>300.05233857244718</v>
       </c>
-      <c r="R6" s="127">
+      <c r="R6" s="126">
         <v>7185.187816049619</v>
       </c>
       <c r="V6" s="84">
@@ -7695,26 +7691,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K7" s="122">
+      <c r="K7" s="121">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M7" s="126">
+      <c r="M7" s="125">
         <v>5</v>
       </c>
       <c r="N7" s="4">
         <v>22.256800557994499</v>
       </c>
-      <c r="O7" s="125">
+      <c r="O7" s="124">
         <v>8380.1516858629893</v>
       </c>
-      <c r="P7" s="125">
+      <c r="P7" s="124">
         <v>376.52094981157984</v>
       </c>
-      <c r="Q7" s="125">
+      <c r="Q7" s="124">
         <v>376.63785071467282</v>
       </c>
-      <c r="R7" s="127">
+      <c r="R7" s="126">
         <v>9132.9607429768439</v>
       </c>
       <c r="V7" s="84">
@@ -7792,26 +7788,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K8" s="122">
+      <c r="K8" s="121">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M8" s="126">
+      <c r="M8" s="125">
         <v>6</v>
       </c>
       <c r="N8" s="4">
         <v>21.75882159855572</v>
       </c>
-      <c r="O8" s="125">
+      <c r="O8" s="124">
         <v>10007.694498827799</v>
       </c>
-      <c r="P8" s="125">
+      <c r="P8" s="124">
         <v>459.93733867885925</v>
       </c>
-      <c r="Q8" s="125">
+      <c r="Q8" s="124">
         <v>460.09478064333217</v>
       </c>
-      <c r="R8" s="127">
+      <c r="R8" s="126">
         <v>11242.980833781599</v>
       </c>
       <c r="V8" s="84">
@@ -7889,26 +7885,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K9" s="122">
+      <c r="K9" s="121">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M9" s="126">
+      <c r="M9" s="125">
         <v>7</v>
       </c>
       <c r="N9" s="4">
         <v>21.201329339843269</v>
       </c>
-      <c r="O9" s="125">
+      <c r="O9" s="124">
         <v>11819.162693827549</v>
       </c>
-      <c r="P9" s="125">
+      <c r="P9" s="124">
         <v>557.47271807225854</v>
       </c>
-      <c r="Q9" s="125">
+      <c r="Q9" s="124">
         <v>557.70808215710349</v>
       </c>
-      <c r="R9" s="127">
+      <c r="R9" s="126">
         <v>13699.115224845271</v>
       </c>
       <c r="V9" s="84">
@@ -7986,26 +7982,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K10" s="122">
+      <c r="K10" s="121">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M10" s="126">
+      <c r="M10" s="125">
         <v>8</v>
       </c>
       <c r="N10" s="4">
         <v>20.567143970787349</v>
       </c>
-      <c r="O10" s="125">
+      <c r="O10" s="124">
         <v>14045.54607745975</v>
       </c>
-      <c r="P10" s="125">
+      <c r="P10" s="124">
         <v>682.91183731729677</v>
       </c>
-      <c r="Q10" s="125">
+      <c r="Q10" s="124">
         <v>683.28168121620035</v>
       </c>
-      <c r="R10" s="127">
+      <c r="R10" s="126">
         <v>16842.298143910339</v>
       </c>
       <c r="V10" s="84">
@@ -8083,26 +8079,26 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K11" s="122">
+      <c r="K11" s="121">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M11" s="126">
+      <c r="M11" s="125">
         <v>9</v>
       </c>
       <c r="N11" s="4">
         <v>19.82907315472039</v>
       </c>
-      <c r="O11" s="125">
+      <c r="O11" s="124">
         <v>17420.973935629281</v>
       </c>
-      <c r="P11" s="125">
+      <c r="P11" s="124">
         <v>878.55714685696989</v>
       </c>
-      <c r="Q11" s="125">
+      <c r="Q11" s="124">
         <v>879.49991527370355</v>
       </c>
-      <c r="R11" s="127">
+      <c r="R11" s="126">
         <v>21738.74747320712</v>
       </c>
       <c r="V11" s="84">
@@ -8144,62 +8140,62 @@
       <c r="A12" s="117">
         <v>10</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="122">
         <f>input_output!A27</f>
         <v>0</v>
       </c>
-      <c r="C12" s="123">
+      <c r="C12" s="122">
         <f>input_output!B27</f>
         <v>0</v>
       </c>
-      <c r="D12" s="123">
+      <c r="D12" s="122">
         <f>input_output!C27</f>
         <v>0</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="122">
         <f>input_output!D27</f>
         <v>0.44871250000000001</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="122">
         <f>input_output!E27</f>
         <v>1</v>
       </c>
-      <c r="G12" s="123">
+      <c r="G12" s="122">
         <f>input_output!F27</f>
         <v>1</v>
       </c>
-      <c r="H12" s="123">
+      <c r="H12" s="122">
         <f>input_output!G27</f>
         <v>1</v>
       </c>
-      <c r="I12" s="123">
+      <c r="I12" s="122">
         <f>input_output!H27</f>
         <v>1</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="122">
         <f>input_output!I27</f>
         <v>1</v>
       </c>
-      <c r="K12" s="124">
+      <c r="K12" s="123">
         <f>input_output!J27</f>
         <v>1</v>
       </c>
-      <c r="M12" s="128">
+      <c r="M12" s="127">
         <v>10</v>
       </c>
       <c r="N12" s="39">
         <v>18.491404422927008</v>
       </c>
-      <c r="O12" s="129">
+      <c r="O12" s="128">
         <v>30348.047945820159</v>
       </c>
-      <c r="P12" s="129">
+      <c r="P12" s="128">
         <v>1641.1975668106857</v>
       </c>
-      <c r="Q12" s="129">
+      <c r="Q12" s="128">
         <v>1654.2834917512409</v>
       </c>
-      <c r="R12" s="130">
+      <c r="R12" s="129">
         <v>29145.557676900538</v>
       </c>
       <c r="V12" s="84">
@@ -9702,7 +9698,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9861,13 +9857,13 @@
       <c r="A10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="131">
+      <c r="B10" s="130">
         <v>131449233351.80701</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="132" t="s">
+      <c r="D10" s="131" t="s">
         <v>195</v>
       </c>
       <c r="E10" s="66" t="s">
@@ -9882,7 +9878,7 @@
         <v>136287548217.13499</v>
       </c>
       <c r="C11" s="19"/>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="131" t="s">
         <v>195</v>
       </c>
       <c r="E11" t="s">
@@ -9999,7 +9995,7 @@
         <v>7.8925094999999992</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="87" t="s">
         <v>163</v>
@@ -10017,7 +10013,7 @@
         <v>13.426338000000001</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="87" t="s">
         <v>163</v>
@@ -10046,9 +10042,7 @@
       <c r="B22" s="102">
         <v>0.65</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>205</v>
-      </c>
+      <c r="C22" s="39"/>
       <c r="D22" s="95" t="s">
         <v>173</v>
       </c>
@@ -10064,7 +10058,7 @@
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -10163,13 +10157,10 @@
         <v>200</v>
       </c>
       <c r="E30" s="59"/>
-      <c r="F30" s="134" t="s">
-        <v>203</v>
-      </c>
+      <c r="F30" s="59"/>
       <c r="G30" s="59"/>
       <c r="H30" s="59"/>
       <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -10182,11 +10173,8 @@
       <c r="D31" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="133">
+      <c r="E31" s="132">
         <v>0.49043300000000001</v>
-      </c>
-      <c r="F31" s="8">
-        <v>57168505035.961685</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -10204,11 +10192,8 @@
       <c r="E32" s="7">
         <v>0.35784820000000001</v>
       </c>
-      <c r="F32" s="8">
-        <v>52336863646.68119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -10222,11 +10207,8 @@
       <c r="E33" s="7">
         <v>0.44871250000000001</v>
       </c>
-      <c r="F33" s="5">
-        <v>49644367371.266037</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
@@ -10235,7 +10217,7 @@
         <v>0.35512874999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -10244,7 +10226,7 @@
         <v>9734365.226106476</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -10253,7 +10235,7 @@
         <v>3.835232953768445E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>63</v>
       </c>
@@ -10262,7 +10244,7 @@
         <v>864.88837044888248</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
         <v>64</v>
       </c>
@@ -10271,7 +10253,7 @@
         <v>730.0773919579857</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="78" t="s">
         <v>145</v>
       </c>
@@ -10280,7 +10262,7 @@
         <v>-0.15587095756754024</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="78" t="s">
         <v>157</v>
       </c>
@@ -12359,7 +12341,7 @@
   <dimension ref="A4:S49"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
